--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7000</v>
       </c>
       <c r="G8" s="3">
         <v>7000</v>
       </c>
       <c r="H8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5300</v>
       </c>
       <c r="P8" s="3">
         <v>5300</v>
       </c>
       <c r="Q8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3600</v>
       </c>
       <c r="N20" s="3">
         <v>-3600</v>
       </c>
       <c r="O20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,85 +1392,91 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1200</v>
       </c>
       <c r="L23" s="3">
         <v>1200</v>
       </c>
       <c r="M23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-22700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3600</v>
       </c>
       <c r="N32" s="3">
         <v>3600</v>
       </c>
       <c r="O32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2139,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>44700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>61800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>28400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>28100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>31400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>4300</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>4300</v>
       </c>
       <c r="L48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4400</v>
       </c>
       <c r="O48" s="3">
         <v>4400</v>
       </c>
       <c r="P48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2447,14 +2557,14 @@
       <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
-        <v>200</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E52" s="3">
         <v>20500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>22800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>703800</v>
+      </c>
+      <c r="E54" s="3">
         <v>700700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>708300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>702200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>721300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>723700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>694800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>663600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>662400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>640300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>650100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>631200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>653600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>632600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,13 +2977,16 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
@@ -2861,14 +2997,14 @@
       <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
+      <c r="H59" s="3">
+        <v>700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
-        <v>400</v>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -2880,7 +3016,7 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>610400</v>
+      </c>
+      <c r="E66" s="3">
         <v>606600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>614200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>609600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>630200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>634700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>597500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>566200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>565300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>566800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>577800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>560300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>584000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>562500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3342,7 +3509,7 @@
         <v>37500</v>
       </c>
       <c r="E70" s="3">
-        <v>39400</v>
+        <v>37500</v>
       </c>
       <c r="F70" s="3">
         <v>39400</v>
@@ -3351,13 +3518,13 @@
         <v>39400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>51000</v>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E72" s="3">
         <v>37700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>36600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>35800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>35000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>30900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E76" s="3">
         <v>56600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,145 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F8" s="3">
         <v>6800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7100</v>
       </c>
       <c r="G8" s="3">
         <v>7000</v>
       </c>
       <c r="H8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
-        <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6100</v>
       </c>
       <c r="I18" s="3">
         <v>5000</v>
       </c>
       <c r="J18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L18" s="3">
         <v>9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>4500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>5300</v>
       </c>
       <c r="Q18" s="3">
         <v>4500</v>
       </c>
       <c r="R18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1311,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-4200</v>
       </c>
       <c r="Q20" s="3">
         <v>-3600</v>
       </c>
       <c r="R20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,94 +1475,106 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>2300</v>
       </c>
       <c r="E23" s="3">
         <v>1100</v>
       </c>
       <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1100</v>
       </c>
       <c r="Q23" s="3">
         <v>900</v>
       </c>
       <c r="R23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>900</v>
+      </c>
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>-22700</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P26" s="3">
         <v>1000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>23900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1100</v>
       </c>
       <c r="Q26" s="3">
         <v>900</v>
       </c>
       <c r="R26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>900</v>
+      </c>
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P27" s="3">
         <v>1000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>23900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1100</v>
       </c>
       <c r="Q27" s="3">
         <v>900</v>
       </c>
       <c r="R27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>900</v>
+      </c>
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>4200</v>
       </c>
       <c r="Q32" s="3">
         <v>3600</v>
       </c>
       <c r="R32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P33" s="3">
         <v>1000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>23900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1100</v>
       </c>
       <c r="Q33" s="3">
         <v>900</v>
       </c>
       <c r="R33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>900</v>
+      </c>
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P35" s="3">
         <v>1000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>23900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1100</v>
       </c>
       <c r="Q35" s="3">
         <v>900</v>
       </c>
       <c r="R35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>900</v>
+      </c>
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2312,122 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="F41" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>8200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>10500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>11400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F42" s="3">
         <v>13800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3">
-        <v>20700</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>44700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>61800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>45100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>28400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>25900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>8500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>23400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>13100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>28100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>31400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,31 +2644,37 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2490,40 +2700,46 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>7200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>4300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4400</v>
       </c>
       <c r="N48" s="3">
         <v>4300</v>
@@ -2532,24 +2748,30 @@
         <v>4400</v>
       </c>
       <c r="P48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4300</v>
       </c>
       <c r="R48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2557,20 +2779,20 @@
       <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3">
-        <v>200</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,44 +2924,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F52" s="3">
         <v>20100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>20500</v>
       </c>
-      <c r="F52" s="3">
-        <v>20700</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>21200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>21400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>22800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>22600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>793200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>705500</v>
+      </c>
+      <c r="F54" s="3">
         <v>703800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>700700</v>
       </c>
-      <c r="F54" s="3">
-        <v>708300</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
         <v>702200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>721300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>723700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>694800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>663600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>662400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>640300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>650100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>631200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>653600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>632600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,37 +3248,43 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3019,10 +3293,10 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3030,8 +3304,14 @@
       <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,13 +3360,19 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>695800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>609600</v>
+      </c>
+      <c r="F66" s="3">
         <v>610400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>606600</v>
       </c>
-      <c r="F66" s="3">
-        <v>614200</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>609600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>630200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>634700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>597500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>566200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>565300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>566800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>577800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>560300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>584000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>562500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,37 +3830,43 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="E70" s="3">
         <v>37500</v>
       </c>
       <c r="F70" s="3">
+        <v>37500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>37500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>39400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="J70" s="3">
         <v>39400</v>
       </c>
-      <c r="H70" s="3">
-        <v>39400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>51000</v>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>51000</v>
+      </c>
+      <c r="T70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F72" s="3">
         <v>37400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>37700</v>
       </c>
-      <c r="F72" s="3">
-        <v>36600</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>35800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>35000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>30900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>30100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>58400</v>
+      </c>
+      <c r="F76" s="3">
         <v>55900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>56600</v>
       </c>
-      <c r="F76" s="3">
-        <v>54700</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
         <v>53100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>51700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>89000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>97300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>46400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>46100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>22600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>19800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>19100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P81" s="3">
         <v>1000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>23900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1100</v>
       </c>
       <c r="Q81" s="3">
         <v>900</v>
       </c>
       <c r="R81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>900</v>
+      </c>
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -1185,10 +1185,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="F17" s="3">
         <v>2700</v>
@@ -1241,10 +1241,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="E18" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F18" s="3">
         <v>4100</v>
@@ -1319,10 +1319,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="F20" s="3">
         <v>-4600</v>
@@ -1991,10 +1991,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="F32" s="3">
         <v>4600</v>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,158 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F8" s="3">
         <v>6700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7100</v>
       </c>
       <c r="I8" s="3">
         <v>7000</v>
       </c>
       <c r="J8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L8" s="3">
         <v>26200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>5600</v>
       </c>
       <c r="E18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>21000</v>
       </c>
       <c r="K18" s="3">
         <v>5000</v>
       </c>
       <c r="L18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N18" s="3">
         <v>9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>4500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5300</v>
       </c>
       <c r="S18" s="3">
         <v>4500</v>
       </c>
       <c r="T18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1378,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-16400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-4200</v>
       </c>
       <c r="S20" s="3">
         <v>-3600</v>
       </c>
       <c r="T20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="V20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>2300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>1100</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1100</v>
       </c>
       <c r="S23" s="3">
         <v>900</v>
       </c>
       <c r="T23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>900</v>
+      </c>
+      <c r="V23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,41 +1637,41 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>500</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>-22700</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>23900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1100</v>
       </c>
       <c r="S26" s="3">
         <v>900</v>
       </c>
       <c r="T26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>900</v>
+      </c>
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>23900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1100</v>
       </c>
       <c r="S27" s="3">
         <v>900</v>
       </c>
       <c r="T27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>900</v>
+      </c>
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>16400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>4200</v>
       </c>
       <c r="S32" s="3">
         <v>3600</v>
       </c>
       <c r="T32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>23900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1100</v>
       </c>
       <c r="S33" s="3">
         <v>900</v>
       </c>
       <c r="T33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>900</v>
+      </c>
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>23900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1100</v>
       </c>
       <c r="S35" s="3">
         <v>900</v>
       </c>
       <c r="T35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>900</v>
+      </c>
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2485,134 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>14400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>10300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>11400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F42" s="3">
         <v>21100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>13800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>44700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>61800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>45100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>28400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>25900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>13400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>23400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>13100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>28100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>31400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,25 +2871,25 @@
         <v>2500</v>
       </c>
       <c r="F47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H47" s="3">
         <v>2400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I47" s="3">
         <v>2400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>2400</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,37 +2930,37 @@
         <v>4700</v>
       </c>
       <c r="E48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>7200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>4300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4400</v>
       </c>
       <c r="P48" s="3">
         <v>4300</v>
@@ -2754,16 +2969,22 @@
         <v>4400</v>
       </c>
       <c r="R48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S48" s="3">
         <v>4400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>4300</v>
       </c>
       <c r="T48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,31 +2995,31 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>200</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3">
-        <v>200</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3163,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F52" s="3">
         <v>19300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>19500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>20100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>20500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>21200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>21400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>22800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>22600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>793600</v>
+      </c>
+      <c r="F54" s="3">
         <v>793200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>705500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>703800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>702200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>721300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>723700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>694800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>663600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>662400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>640300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>650100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>631200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>653600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>632600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,43 +3521,49 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
+      <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
@@ -3299,10 +3572,10 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
@@ -3310,8 +3583,14 @@
       <c r="T59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>300</v>
+      </c>
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,20 +3645,26 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F61" s="3">
         <v>43000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>647300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>692300</v>
+      </c>
+      <c r="F66" s="3">
         <v>695800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>609600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>610400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>606600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>609600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>630200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>634700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>597500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>566200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>565300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>566800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>577800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>560300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>584000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>562500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3845,34 +4180,34 @@
         <v>37300</v>
       </c>
       <c r="E70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="F70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="G70" s="3">
         <v>37500</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="I70" s="3">
+        <v>37500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>39400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>39400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>51000</v>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>51000</v>
+      </c>
+      <c r="V70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>61200</v>
+      </c>
+      <c r="F72" s="3">
         <v>39700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>38000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>37400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>37700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>35800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>35000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>30900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>30100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F76" s="3">
         <v>60000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>58400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>55900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>56600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>53100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>51700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>89000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>97300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>46400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>46100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>22600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>21300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>19800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>18500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>19100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>23900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1100</v>
       </c>
       <c r="S81" s="3">
         <v>900</v>
       </c>
       <c r="T81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>900</v>
+      </c>
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>5300</v>
       </c>
       <c r="U8" s="3">
         <v>5300</v>
       </c>
       <c r="V8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1423,64 @@
         <v>-2800</v>
       </c>
       <c r="E20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-3600</v>
       </c>
       <c r="S20" s="3">
         <v>-3600</v>
       </c>
       <c r="T20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="U20" s="3">
         <v>-4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,106 +1618,109 @@
         <v>2900</v>
       </c>
       <c r="E23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1200</v>
       </c>
       <c r="Q23" s="3">
         <v>1200</v>
       </c>
       <c r="R23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>2800</v>
       </c>
       <c r="E32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>3600</v>
       </c>
       <c r="S32" s="3">
         <v>3600</v>
       </c>
       <c r="T32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U32" s="3">
         <v>4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E41" s="3">
         <v>29900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>9000</v>
       </c>
       <c r="H41" s="3">
         <v>9000</v>
       </c>
       <c r="I41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2558,61 +2648,64 @@
         <v>3100</v>
       </c>
       <c r="E42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F42" s="3">
         <v>11300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>44700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>61800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>28400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>28100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>31400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,13 +2961,16 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
         <v>2500</v>
@@ -2877,22 +2982,22 @@
         <v>2500</v>
       </c>
       <c r="H47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I47" s="3">
         <v>2400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="J47" s="3">
         <v>2400</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>2400</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="3">
         <v>4700</v>
@@ -2936,55 +3044,58 @@
         <v>4700</v>
       </c>
       <c r="G48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>7200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
-        <v>4300</v>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P48" s="3">
         <v>4300</v>
       </c>
       <c r="Q48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R48" s="3">
         <v>4400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>4400</v>
       </c>
       <c r="T48" s="3">
         <v>4400</v>
       </c>
       <c r="U48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V48" s="3">
         <v>4300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3001,28 +3112,28 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="J49" s="3">
         <v>200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>200</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>200</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,53 +3286,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E52" s="3">
         <v>16300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>21200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>22800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>752700</v>
+      </c>
+      <c r="E54" s="3">
         <v>751000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>793600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>793200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>705500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>703800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>702200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>721300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>723700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>694800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>663600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>662400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>640300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>650100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>631200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>653600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>632600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,46 +3661,49 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
+      <c r="M59" s="3">
+        <v>700</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>400</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3578,7 +3715,7 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,14 +3803,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>33900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>647100</v>
+      </c>
+      <c r="E66" s="3">
         <v>647300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>692300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>695800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>609600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>610400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>606600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>609600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>630200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>634700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>597500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>566200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>565300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>566800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>577800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>560300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>584000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>562500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4186,7 +4354,7 @@
         <v>37300</v>
       </c>
       <c r="G70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="H70" s="3">
         <v>37500</v>
@@ -4195,22 +4363,22 @@
         <v>37500</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="K70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>39400</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>51000</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E72" s="3">
         <v>63600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>61200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>39700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>37400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>37700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>35800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>30900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E76" s="3">
         <v>66400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>64000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>53100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>97300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>5300</v>
       </c>
       <c r="V8" s="3">
         <v>5300</v>
       </c>
       <c r="W8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2800</v>
+        <v>-4100</v>
       </c>
       <c r="E20" s="3">
         <v>-2800</v>
       </c>
       <c r="F20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-3600</v>
       </c>
       <c r="T20" s="3">
         <v>-3600</v>
       </c>
       <c r="U20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,121 +1649,127 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
         <v>2900</v>
       </c>
       <c r="F23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1200</v>
       </c>
       <c r="R23" s="3">
         <v>1200</v>
       </c>
       <c r="S23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-22700</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="E32" s="3">
         <v>2800</v>
       </c>
       <c r="F32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>3600</v>
       </c>
       <c r="T32" s="3">
         <v>3600</v>
       </c>
       <c r="U32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E41" s="3">
         <v>51700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>9000</v>
       </c>
       <c r="I41" s="3">
         <v>9000</v>
       </c>
       <c r="J41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K41" s="3">
         <v>9600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2651,61 +2741,64 @@
         <v>3100</v>
       </c>
       <c r="F42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G42" s="3">
         <v>11300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>44700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>45100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>28400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>28100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>31400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,7 +3078,7 @@
         <v>2400</v>
       </c>
       <c r="E47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F47" s="3">
         <v>2500</v>
@@ -2985,22 +3090,22 @@
         <v>2500</v>
       </c>
       <c r="I47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J47" s="3">
         <v>2400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
         <v>2400</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>2400</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3029,16 +3134,19 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4700</v>
       </c>
       <c r="F48" s="3">
         <v>4700</v>
@@ -3047,55 +3155,58 @@
         <v>4700</v>
       </c>
       <c r="H48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>7200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
-        <v>4300</v>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q48" s="3">
         <v>4300</v>
       </c>
       <c r="R48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S48" s="3">
         <v>4400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>4400</v>
       </c>
       <c r="U48" s="3">
         <v>4400</v>
       </c>
       <c r="V48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W48" s="3">
         <v>4300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3115,28 +3226,28 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="K49" s="3">
         <v>200</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
+      <c r="N49" s="3">
+        <v>200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>200</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,56 +3406,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E52" s="3">
         <v>16400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>21200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>22800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>753700</v>
+      </c>
+      <c r="E54" s="3">
         <v>752700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>751000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>793600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>793200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>705500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>703800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>702200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>721300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>723700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>694800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>663600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>662400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>640300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>650100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>631200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>653600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>632600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,40 +3810,40 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="N59" s="3">
+        <v>700</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>400</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3718,7 +3855,7 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,14 +3949,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>33900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>646600</v>
+      </c>
+      <c r="E66" s="3">
         <v>647100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>647300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>692300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>695800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>609600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>610400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>606600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>609600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>630200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>634700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>597500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>566200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>565300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>566800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>577800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>560300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>584000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>562500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4357,7 +4525,7 @@
         <v>37300</v>
       </c>
       <c r="H70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="I70" s="3">
         <v>37500</v>
@@ -4366,22 +4534,22 @@
         <v>37500</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="L70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>39400</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>51000</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E72" s="3">
         <v>65800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>61200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>37400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>37700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>35800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>30900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E76" s="3">
         <v>68300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>66400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>64000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>53100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>97300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
-      </c>
-      <c r="V8" s="3">
-        <v>5300</v>
       </c>
       <c r="W8" s="3">
         <v>5300</v>
       </c>
       <c r="X8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Y8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2800</v>
       </c>
       <c r="F20" s="3">
         <v>-2800</v>
       </c>
       <c r="G20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-3600</v>
       </c>
       <c r="U20" s="3">
         <v>-3600</v>
       </c>
       <c r="V20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="W20" s="3">
         <v>-4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,127 +1692,133 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2900</v>
       </c>
       <c r="F23" s="3">
         <v>2900</v>
       </c>
       <c r="G23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H23" s="3">
         <v>4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1200</v>
       </c>
       <c r="S23" s="3">
         <v>1200</v>
       </c>
       <c r="T23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-22700</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>4100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2800</v>
       </c>
       <c r="F32" s="3">
         <v>2800</v>
       </c>
       <c r="G32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>3600</v>
       </c>
       <c r="U32" s="3">
         <v>3600</v>
       </c>
       <c r="V32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W32" s="3">
         <v>4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E41" s="3">
         <v>52500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>9000</v>
       </c>
       <c r="J41" s="3">
         <v>9000</v>
       </c>
       <c r="K41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L41" s="3">
         <v>9600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>8200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2744,61 +2834,64 @@
         <v>3100</v>
       </c>
       <c r="G42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H42" s="3">
         <v>11300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>44700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>61800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>45100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>28100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>31400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3081,7 +3186,7 @@
         <v>2400</v>
       </c>
       <c r="F47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="3">
         <v>2500</v>
@@ -3093,22 +3198,22 @@
         <v>2500</v>
       </c>
       <c r="J47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N47" s="3">
         <v>2400</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3137,19 +3242,22 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4700</v>
       </c>
       <c r="G48" s="3">
         <v>4700</v>
@@ -3158,55 +3266,58 @@
         <v>4700</v>
       </c>
       <c r="I48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>7200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
-        <v>4300</v>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R48" s="3">
         <v>4300</v>
       </c>
       <c r="S48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T48" s="3">
         <v>4400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>4400</v>
       </c>
       <c r="V48" s="3">
         <v>4400</v>
       </c>
       <c r="W48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X48" s="3">
         <v>4300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3229,28 +3340,28 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="L49" s="3">
         <v>200</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>200</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>200</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,59 +3526,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E52" s="3">
         <v>15600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>21200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>22800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>775900</v>
+      </c>
+      <c r="E54" s="3">
         <v>753700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>752700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>751000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>793600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>793200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>705500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>703800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>702200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>721300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>723700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>694800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>663600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>662400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>640300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>650100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>631200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>653600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>632600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,40 +3950,40 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3">
+        <v>700</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>400</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -3858,7 +3995,7 @@
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3952,14 +4095,14 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>33900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>666900</v>
+      </c>
+      <c r="E66" s="3">
         <v>646600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>647100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>647300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>692300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>695800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>609600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>610400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>606600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>609600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>630200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>634700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>597500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>566200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>565300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>566800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>577800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>560300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>584000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>562500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4528,7 +4696,7 @@
         <v>37300</v>
       </c>
       <c r="I70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="J70" s="3">
         <v>37500</v>
@@ -4537,22 +4705,22 @@
         <v>37500</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="M70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>39400</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>51000</v>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E72" s="3">
         <v>67400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>65800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>61200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>37400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>35800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>30900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E76" s="3">
         <v>69700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>66400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>64000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>53100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>97300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>5300</v>
       </c>
       <c r="X8" s="3">
         <v>5300</v>
       </c>
       <c r="Y8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,70 +1422,73 @@
         <v>6300</v>
       </c>
       <c r="E18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2800</v>
       </c>
       <c r="G20" s="3">
         <v>-2800</v>
       </c>
       <c r="H20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-3600</v>
       </c>
       <c r="V20" s="3">
         <v>-3600</v>
       </c>
       <c r="W20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="X20" s="3">
         <v>-4200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,133 +1734,139 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2900</v>
       </c>
       <c r="G23" s="3">
         <v>2900</v>
       </c>
       <c r="H23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I23" s="3">
         <v>4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1200</v>
       </c>
       <c r="T23" s="3">
         <v>1200</v>
       </c>
       <c r="U23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-22700</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2800</v>
       </c>
       <c r="G32" s="3">
         <v>2800</v>
       </c>
       <c r="H32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3700</v>
-      </c>
-      <c r="U32" s="3">
-        <v>3600</v>
       </c>
       <c r="V32" s="3">
         <v>3600</v>
       </c>
       <c r="W32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X32" s="3">
         <v>4200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E41" s="3">
         <v>69200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>9000</v>
       </c>
       <c r="K41" s="3">
         <v>9000</v>
       </c>
       <c r="L41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>8200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2837,61 +2926,64 @@
         <v>3100</v>
       </c>
       <c r="H42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I42" s="3">
         <v>11300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>44700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>45100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>28400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>23400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>28100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>31400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3189,7 +3293,7 @@
         <v>2400</v>
       </c>
       <c r="G47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H47" s="3">
         <v>2500</v>
@@ -3201,22 +3305,22 @@
         <v>2500</v>
       </c>
       <c r="K47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O47" s="3">
         <v>2400</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3245,22 +3349,25 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4700</v>
       </c>
       <c r="H48" s="3">
         <v>4700</v>
@@ -3269,55 +3376,58 @@
         <v>4700</v>
       </c>
       <c r="J48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>7200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
-        <v>4300</v>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S48" s="3">
         <v>4300</v>
       </c>
       <c r="T48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U48" s="3">
         <v>4400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>4400</v>
       </c>
       <c r="W48" s="3">
         <v>4400</v>
       </c>
       <c r="X48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Y48" s="3">
         <v>4300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3343,28 +3453,28 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="M49" s="3">
         <v>200</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
+      <c r="P49" s="3">
+        <v>200</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
-        <v>200</v>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,62 +3645,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E52" s="3">
         <v>15200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>21200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>22800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>745400</v>
+      </c>
+      <c r="E54" s="3">
         <v>775900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>753700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>752700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>751000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>793600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>793200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>705500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>703800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>702200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>721300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>723700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>694800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>663600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>662400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>640300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>650100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>631200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>653600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>632600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3953,40 +4089,40 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
+      <c r="P59" s="3">
+        <v>700</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>400</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3998,7 +4134,7 @@
         <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4098,14 +4240,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>33900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>653600</v>
+      </c>
+      <c r="E66" s="3">
         <v>666900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>646600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>647100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>647300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>692300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>695800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>609600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>610400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>606600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>609600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>630200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>634700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>597500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>566200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>565300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>566800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>577800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>560300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>584000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>562500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,13 +4839,16 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="E70" s="3">
         <v>37300</v>
@@ -4699,7 +4866,7 @@
         <v>37300</v>
       </c>
       <c r="J70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="K70" s="3">
         <v>37500</v>
@@ -4708,22 +4875,22 @@
         <v>37500</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="N70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>39400</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>51000</v>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E72" s="3">
         <v>69600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>67400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>65800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>63600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>61200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>39700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>35800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>30900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E76" s="3">
         <v>71700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>66400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>64000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>53100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>97300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5600</v>
-      </c>
-      <c r="X8" s="3">
-        <v>5300</v>
       </c>
       <c r="Y8" s="3">
         <v>5300</v>
       </c>
       <c r="Z8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AA8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>-100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="E18" s="3">
         <v>6300</v>
       </c>
       <c r="F18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2800</v>
       </c>
       <c r="H20" s="3">
         <v>-2800</v>
       </c>
       <c r="I20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-3600</v>
       </c>
       <c r="W20" s="3">
         <v>-3600</v>
       </c>
       <c r="X20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2900</v>
       </c>
       <c r="H23" s="3">
         <v>2900</v>
       </c>
       <c r="I23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J23" s="3">
         <v>4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1200</v>
       </c>
       <c r="U23" s="3">
         <v>1200</v>
       </c>
       <c r="V23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,56 +1866,56 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-22700</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2800</v>
       </c>
       <c r="H32" s="3">
         <v>2800</v>
       </c>
       <c r="I32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3700</v>
-      </c>
-      <c r="V32" s="3">
-        <v>3600</v>
       </c>
       <c r="W32" s="3">
         <v>3600</v>
       </c>
       <c r="X32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>4200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E41" s="3">
         <v>59200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>9000</v>
       </c>
       <c r="L41" s="3">
         <v>9000</v>
       </c>
       <c r="M41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N41" s="3">
         <v>9600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>8200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2929,61 +3019,64 @@
         <v>3100</v>
       </c>
       <c r="I42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J42" s="3">
         <v>11300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>44700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>61800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>45100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>28400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>25900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>23400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>28100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>31400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,13 +3380,16 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E47" s="3">
         <v>2400</v>
@@ -3296,7 +3401,7 @@
         <v>2400</v>
       </c>
       <c r="H47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I47" s="3">
         <v>2500</v>
@@ -3308,22 +3413,22 @@
         <v>2500</v>
       </c>
       <c r="L47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
         <v>2400</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P47" s="3">
         <v>2400</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,16 +3469,16 @@
         <v>4200</v>
       </c>
       <c r="E48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4700</v>
       </c>
       <c r="I48" s="3">
         <v>4700</v>
@@ -3379,55 +3487,58 @@
         <v>4700</v>
       </c>
       <c r="K48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>7200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
-        <v>4300</v>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T48" s="3">
         <v>4300</v>
       </c>
       <c r="U48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V48" s="3">
         <v>4400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4300</v>
-      </c>
-      <c r="W48" s="3">
-        <v>4400</v>
       </c>
       <c r="X48" s="3">
         <v>4400</v>
       </c>
       <c r="Y48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z48" s="3">
         <v>4300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3456,28 +3567,28 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="N49" s="3">
         <v>200</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
+      <c r="Q49" s="3">
+        <v>200</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
-        <v>200</v>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,65 +3765,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E52" s="3">
         <v>14700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>21200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>22800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>764600</v>
+      </c>
+      <c r="E54" s="3">
         <v>745400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>775900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>753700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>752700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>751000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>793600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>793200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>705500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>703800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>702200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>721300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>723700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>694800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>663600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>662400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>640300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>650100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>631200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>653600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>632600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4092,40 +4229,40 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
+      <c r="Q59" s="3">
+        <v>700</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>400</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
@@ -4137,7 +4274,7 @@
         <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,13 +4362,16 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4243,14 +4386,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>33900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>674700</v>
+      </c>
+      <c r="E66" s="3">
         <v>653600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>666900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>646600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>647100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>647300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>692300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>695800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>609600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>610400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>606600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>609600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>630200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>634700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>597500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>566200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>565300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>566800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>577800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>560300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>584000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>562500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4851,7 +5019,7 @@
         <v>18800</v>
       </c>
       <c r="E70" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="F70" s="3">
         <v>37300</v>
@@ -4869,7 +5037,7 @@
         <v>37300</v>
       </c>
       <c r="K70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="L70" s="3">
         <v>37500</v>
@@ -4878,22 +5046,22 @@
         <v>37500</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="O70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>39400</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>51000</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E72" s="3">
         <v>71500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>67400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>65800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>61200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>35800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>30900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E76" s="3">
         <v>73000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>66400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>64000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>60000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>53100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>97300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E8" s="3">
         <v>5900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>5300</v>
       </c>
       <c r="Z8" s="3">
         <v>5300</v>
       </c>
       <c r="AA8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AB8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>5800</v>
       </c>
       <c r="E18" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="F18" s="3">
         <v>6300</v>
       </c>
       <c r="G18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2800</v>
       </c>
       <c r="I20" s="3">
         <v>-2800</v>
       </c>
       <c r="J20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-3600</v>
       </c>
       <c r="X20" s="3">
         <v>-3600</v>
       </c>
       <c r="Y20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2900</v>
       </c>
       <c r="I23" s="3">
         <v>2900</v>
       </c>
       <c r="J23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K23" s="3">
         <v>4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1200</v>
       </c>
       <c r="V23" s="3">
         <v>1200</v>
       </c>
       <c r="W23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,56 +1915,56 @@
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-22700</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,76 +2072,79 @@
         <v>900</v>
       </c>
       <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,76 +2152,79 @@
         <v>900</v>
       </c>
       <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,85 +2540,91 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2800</v>
       </c>
       <c r="I32" s="3">
         <v>2800</v>
       </c>
       <c r="J32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3700</v>
-      </c>
-      <c r="W32" s="3">
-        <v>3600</v>
       </c>
       <c r="X32" s="3">
         <v>3600</v>
       </c>
       <c r="Y32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z32" s="3">
         <v>4200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,76 +2632,79 @@
         <v>900</v>
       </c>
       <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,158 +2792,164 @@
         <v>900</v>
       </c>
       <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,90 +3007,94 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E41" s="3">
         <v>88600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>9000</v>
       </c>
       <c r="M41" s="3">
         <v>9000</v>
       </c>
       <c r="N41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>8200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
         <v>3100</v>
@@ -3022,61 +3112,64 @@
         <v>3100</v>
       </c>
       <c r="J42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K42" s="3">
         <v>11300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>44700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>45100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>28400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>25900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>13100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>28100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>31400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,16 +3485,19 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2400</v>
       </c>
       <c r="F47" s="3">
         <v>2400</v>
@@ -3404,7 +3509,7 @@
         <v>2400</v>
       </c>
       <c r="I47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J47" s="3">
         <v>2500</v>
@@ -3416,22 +3521,22 @@
         <v>2500</v>
       </c>
       <c r="M47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="N47" s="3">
         <v>2400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3">
         <v>2400</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q47" s="3">
         <v>2400</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3460,28 +3565,31 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E48" s="3">
         <v>4200</v>
       </c>
       <c r="F48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4700</v>
       </c>
       <c r="J48" s="3">
         <v>4700</v>
@@ -3490,55 +3598,58 @@
         <v>4700</v>
       </c>
       <c r="L48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
-        <v>4300</v>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U48" s="3">
         <v>4300</v>
       </c>
       <c r="V48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W48" s="3">
         <v>4400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>4400</v>
       </c>
       <c r="Y48" s="3">
         <v>4400</v>
       </c>
       <c r="Z48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA48" s="3">
         <v>4300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3570,28 +3681,28 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="O49" s="3">
         <v>200</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
+      <c r="R49" s="3">
+        <v>200</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
-        <v>200</v>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,68 +3885,71 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E52" s="3">
         <v>15800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>21200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>22800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>774400</v>
+      </c>
+      <c r="E54" s="3">
         <v>764600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>745400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>775900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>753700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>752700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>751000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>793600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>793200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>705500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>703800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>702200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>721300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>723700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>694800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>663600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>662400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>640300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>650100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>631200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>653600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>632600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,13 +4345,16 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -4232,40 +4369,40 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
+      <c r="R59" s="3">
+        <v>700</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>400</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
@@ -4277,7 +4414,7 @@
         <v>400</v>
       </c>
       <c r="X59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,7 +4517,7 @@
         <v>9700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4389,14 +4532,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>33900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>685200</v>
+      </c>
+      <c r="E66" s="3">
         <v>674700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>653600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>666900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>646600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>647100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>647300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>692300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>695800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>609600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>610400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>606600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>609600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>630200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>634700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>597500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>566200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>565300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>566800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>577800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>560300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>584000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>562500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5022,7 +5190,7 @@
         <v>18800</v>
       </c>
       <c r="F70" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="G70" s="3">
         <v>37300</v>
@@ -5040,7 +5208,7 @@
         <v>37300</v>
       </c>
       <c r="L70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="M70" s="3">
         <v>37500</v>
@@ -5049,22 +5217,22 @@
         <v>37500</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="P70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>39400</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>51000</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E72" s="3">
         <v>72400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>71500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>69600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>67400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>65800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>61200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>35800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>30900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>30100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E76" s="3">
         <v>71200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>66400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>64000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>53100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>89000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>97300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,76 +5912,79 @@
         <v>900</v>
       </c>
       <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5600</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>5300</v>
       </c>
       <c r="AA8" s="3">
         <v>5300</v>
       </c>
       <c r="AB8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AC8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5800</v>
+        <v>6300</v>
       </c>
       <c r="E18" s="3">
         <v>5800</v>
       </c>
       <c r="F18" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="G18" s="3">
         <v>6300</v>
       </c>
       <c r="H18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1616,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2800</v>
       </c>
       <c r="J20" s="3">
         <v>-2800</v>
       </c>
       <c r="K20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-3600</v>
       </c>
       <c r="Y20" s="3">
         <v>-3600</v>
       </c>
       <c r="Z20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,93 +1863,99 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2900</v>
       </c>
       <c r="J23" s="3">
         <v>2900</v>
       </c>
       <c r="K23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L23" s="3">
         <v>4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1200</v>
       </c>
       <c r="W23" s="3">
         <v>1200</v>
       </c>
       <c r="X23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1918,56 +1964,56 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-22700</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
         <v>900</v>
       </c>
       <c r="F26" s="3">
+        <v>900</v>
+      </c>
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
         <v>900</v>
       </c>
       <c r="F27" s="3">
+        <v>900</v>
+      </c>
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2800</v>
       </c>
       <c r="J32" s="3">
         <v>2800</v>
       </c>
       <c r="K32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3700</v>
-      </c>
-      <c r="X32" s="3">
-        <v>3600</v>
       </c>
       <c r="Y32" s="3">
         <v>3600</v>
       </c>
       <c r="Z32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA32" s="3">
         <v>4200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
         <v>900</v>
       </c>
       <c r="F33" s="3">
+        <v>900</v>
+      </c>
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
         <v>900</v>
       </c>
       <c r="F35" s="3">
+        <v>900</v>
+      </c>
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,96 +3094,100 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E41" s="3">
         <v>68100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>9000</v>
       </c>
       <c r="N41" s="3">
         <v>9000</v>
       </c>
       <c r="O41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P41" s="3">
         <v>9600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>8200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="3">
         <v>2900</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3100</v>
       </c>
       <c r="F42" s="3">
         <v>3100</v>
@@ -3115,61 +3205,64 @@
         <v>3100</v>
       </c>
       <c r="K42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L42" s="3">
         <v>11300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>44700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>61800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>45100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>28400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>25900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>23400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>13100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>28100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>31400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,19 +3590,22 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2400</v>
       </c>
       <c r="G47" s="3">
         <v>2400</v>
@@ -3512,7 +3617,7 @@
         <v>2400</v>
       </c>
       <c r="J47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K47" s="3">
         <v>2500</v>
@@ -3524,22 +3629,22 @@
         <v>2500</v>
       </c>
       <c r="N47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="O47" s="3">
         <v>2400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="P47" s="3">
         <v>2400</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R47" s="3">
         <v>2400</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3568,31 +3673,34 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4200</v>
       </c>
       <c r="F48" s="3">
         <v>4200</v>
       </c>
       <c r="G48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4700</v>
       </c>
       <c r="K48" s="3">
         <v>4700</v>
@@ -3601,55 +3709,58 @@
         <v>4700</v>
       </c>
       <c r="M48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>7200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
-        <v>4300</v>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V48" s="3">
         <v>4300</v>
       </c>
       <c r="W48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X48" s="3">
         <v>4400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4300</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>4400</v>
       </c>
       <c r="Z48" s="3">
         <v>4400</v>
       </c>
       <c r="AA48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AB48" s="3">
         <v>4300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3684,28 +3795,28 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="P49" s="3">
         <v>200</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
+      <c r="S49" s="3">
+        <v>200</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
-        <v>200</v>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,71 +4005,74 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>21200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>22800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22600</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E54" s="3">
         <v>774400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>764600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>745400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>775900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>753700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>752700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>751000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>793600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>793200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>705500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>703800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>702200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>721300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>723700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>694800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>663600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>662400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>640300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>650100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>631200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>653600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>632600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,16 +4482,19 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -4372,40 +4509,40 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>700</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
+      <c r="S59" s="3">
+        <v>700</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>400</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -4417,7 +4554,7 @@
         <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4520,7 +4663,7 @@
         <v>9700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4535,14 +4678,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>33900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>675700</v>
+      </c>
+      <c r="E66" s="3">
         <v>685200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>674700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>653600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>666900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>646600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>647100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>647300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>692300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>695800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>609600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>610400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>606600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>609600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>630200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>634700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>597500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>566200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>565300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>566800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>577800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>560300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>584000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>562500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5193,7 +5361,7 @@
         <v>18800</v>
       </c>
       <c r="G70" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="H70" s="3">
         <v>37300</v>
@@ -5211,7 +5379,7 @@
         <v>37300</v>
       </c>
       <c r="M70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="N70" s="3">
         <v>37500</v>
@@ -5220,22 +5388,22 @@
         <v>37500</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="Q70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>39400</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>51000</v>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E72" s="3">
         <v>73400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>72400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>71500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>69600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>67400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>65800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>63600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>37700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>35800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>30900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>30100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E76" s="3">
         <v>70300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>71700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>68300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>66400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>53100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>89000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>97300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>46100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
         <v>900</v>
       </c>
       <c r="F81" s="3">
+        <v>900</v>
+      </c>
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,147 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6300</v>
       </c>
       <c r="I8" s="3">
         <v>6200</v>
@@ -807,64 +814,70 @@
         <v>6300</v>
       </c>
       <c r="K8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>7100</v>
       </c>
       <c r="R8" s="3">
         <v>7000</v>
       </c>
       <c r="S8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U8" s="3">
         <v>26200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>5600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>5300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>5300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6000</v>
       </c>
       <c r="M18" s="3">
         <v>5600</v>
       </c>
       <c r="N18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>21000</v>
       </c>
       <c r="T18" s="3">
         <v>5000</v>
       </c>
       <c r="U18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="V18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W18" s="3">
         <v>9800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>4900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>5300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>4800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>4700</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>4500</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>5300</v>
       </c>
       <c r="AB18" s="3">
         <v>4500</v>
       </c>
       <c r="AC18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AE18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-16400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-7800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-4200</v>
       </c>
       <c r="AB20" s="3">
         <v>-3600</v>
       </c>
       <c r="AC20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1856,14 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,111 +1945,123 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1900</v>
       </c>
       <c r="J23" s="3">
         <v>2900</v>
       </c>
       <c r="K23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N23" s="3">
         <v>4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>1100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>900</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>1100</v>
       </c>
       <c r="AB23" s="3">
         <v>900</v>
       </c>
       <c r="AC23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>300</v>
-      </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>800</v>
@@ -1979,47 +2070,47 @@
         <v>600</v>
       </c>
       <c r="L24" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M24" s="3">
         <v>600</v>
       </c>
       <c r="N24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>600</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>500</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-22700</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>900</v>
       </c>
       <c r="F26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>900</v>
+      </c>
+      <c r="I26" s="3">
         <v>1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1400</v>
       </c>
       <c r="J26" s="3">
         <v>2100</v>
       </c>
       <c r="K26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>23900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>900</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>1100</v>
       </c>
       <c r="AB26" s="3">
         <v>900</v>
       </c>
       <c r="AC26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1400</v>
       </c>
       <c r="J27" s="3">
         <v>2100</v>
       </c>
       <c r="K27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>5100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>23900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>900</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>1100</v>
       </c>
       <c r="AB27" s="3">
         <v>900</v>
       </c>
       <c r="AC27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>16400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>7800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>3700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>3600</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>4200</v>
       </c>
       <c r="AB32" s="3">
         <v>3600</v>
       </c>
       <c r="AC32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AE32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1400</v>
       </c>
       <c r="J33" s="3">
         <v>2100</v>
       </c>
       <c r="K33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>5100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>23900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>900</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>1100</v>
       </c>
       <c r="AB33" s="3">
         <v>900</v>
       </c>
       <c r="AC33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1400</v>
       </c>
       <c r="J35" s="3">
         <v>2100</v>
       </c>
       <c r="K35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>5100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>23900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>900</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>1100</v>
       </c>
       <c r="AB35" s="3">
         <v>900</v>
       </c>
       <c r="AC35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F41" s="3">
         <v>36500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>68100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>88600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>59200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>69200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>52500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>51700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>30500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>8200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>13000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>10100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>10800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>14400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>9600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>10500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>12800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>10300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>11400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3187,13 +3366,13 @@
         <v>1900</v>
       </c>
       <c r="E42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G42" s="3">
         <v>2900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3100</v>
       </c>
       <c r="H42" s="3">
         <v>3100</v>
@@ -3208,61 +3387,67 @@
         <v>3100</v>
       </c>
       <c r="L42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N42" s="3">
         <v>11300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>21100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>6600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>13800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>44700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>61800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>45100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>28400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>25900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>8500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>13400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>23400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>13100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>28100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>31400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,25 +3796,31 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2400</v>
       </c>
       <c r="I47" s="3">
         <v>2400</v>
@@ -3620,10 +3829,10 @@
         <v>2400</v>
       </c>
       <c r="K47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M47" s="3">
         <v>2500</v>
@@ -3632,25 +3841,25 @@
         <v>2500</v>
       </c>
       <c r="O47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2400</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
       <c r="U47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3676,13 +3885,19 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="3">
         <v>4100</v>
@@ -3691,58 +3906,58 @@
         <v>4200</v>
       </c>
       <c r="G48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4700</v>
       </c>
       <c r="M48" s="3">
         <v>4700</v>
       </c>
       <c r="N48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>7200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>4300</v>
-      </c>
-      <c r="W48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>4400</v>
       </c>
       <c r="Y48" s="3">
         <v>4300</v>
@@ -3751,16 +3966,22 @@
         <v>4400</v>
       </c>
       <c r="AA48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>4400</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>4300</v>
       </c>
       <c r="AC48" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3798,31 +4019,31 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
         <v>200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="U49" s="3">
         <v>200</v>
       </c>
-      <c r="W49" s="3">
-        <v>200</v>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X49" s="3">
         <v>200</v>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,77 +4241,83 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>15800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>14700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>15200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>15600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>16400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>16300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>18500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>19300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>19500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>20100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>20500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>21200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>21400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>22800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>22600</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>787200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>753000</v>
+      </c>
+      <c r="F54" s="3">
         <v>763000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>774400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>764600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>745400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>775900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>753700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>752700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>751000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>793600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>793200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>705500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>703800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>702200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>721300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>723700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>694800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>663600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>662400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>640300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>650100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>631200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>653600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>632600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4663,14 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,22 +4752,28 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -4512,43 +4785,43 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
-        <v>400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>400</v>
+      <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
@@ -4557,10 +4830,10 @@
         <v>400</v>
       </c>
       <c r="Z59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB59" s="3">
         <v>300</v>
@@ -4568,8 +4841,14 @@
       <c r="AC59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4666,10 +4951,10 @@
         <v>9700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4681,17 +4966,17 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>33900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>43000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>703600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>669500</v>
+      </c>
+      <c r="F66" s="3">
         <v>675700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>685200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>674700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>653600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>666900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>646600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>647100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>647300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>692300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>695800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>609600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>610400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>606600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>609600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>630200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>634700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>597500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>566200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>565300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>566800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>577800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>560300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>584000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>562500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,16 +5675,22 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>18800</v>
+        <v>13800</v>
       </c>
       <c r="E70" s="3">
-        <v>18800</v>
+        <v>13800</v>
       </c>
       <c r="F70" s="3">
         <v>18800</v>
@@ -5364,10 +5699,10 @@
         <v>18800</v>
       </c>
       <c r="H70" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="I70" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="J70" s="3">
         <v>37300</v>
@@ -5382,34 +5717,34 @@
         <v>37300</v>
       </c>
       <c r="N70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="O70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="P70" s="3">
         <v>37500</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="R70" s="3">
+        <v>37500</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>39400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>39400</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="W70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="X70" s="3">
         <v>51000</v>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>51000</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F72" s="3">
         <v>74600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>73400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>72400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>71500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>69600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>67400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>65800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>63600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>61200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>39700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>38000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>37400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>37700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>35800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>35000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>30900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>30100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>6200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>4000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>3000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="F76" s="3">
         <v>68500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>70300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>71200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>73000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>71700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>69700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>68300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>66400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>64000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>60000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>58400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>55900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>56600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>53100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>51700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>89000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>97300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>46400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>46100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>22600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>21300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>19800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>18500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>19100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1400</v>
       </c>
       <c r="J81" s="3">
         <v>2100</v>
       </c>
       <c r="K81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>5100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>23900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>900</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>1100</v>
       </c>
       <c r="AB81" s="3">
         <v>900</v>
       </c>
       <c r="AC81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7602,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>CIBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,226 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E8" s="3">
         <v>8500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5600</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>5300</v>
       </c>
       <c r="AD8" s="3">
         <v>5300</v>
       </c>
       <c r="AE8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AF8" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
       <c r="AD17" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5800</v>
       </c>
       <c r="H18" s="3">
         <v>5800</v>
       </c>
       <c r="I18" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="J18" s="3">
         <v>6300</v>
       </c>
       <c r="K18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>5300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>4500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,97 +1717,101 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2800</v>
       </c>
       <c r="M20" s="3">
         <v>-2800</v>
       </c>
       <c r="N20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-3600</v>
       </c>
       <c r="AB20" s="3">
         <v>-3600</v>
       </c>
       <c r="AC20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-4200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,111 +1991,117 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2900</v>
       </c>
       <c r="M23" s="3">
         <v>2900</v>
       </c>
       <c r="N23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1200</v>
       </c>
       <c r="Z23" s="3">
         <v>1200</v>
       </c>
       <c r="AA23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -2064,56 +2110,56 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-22700</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>900</v>
       </c>
       <c r="H26" s="3">
         <v>900</v>
       </c>
       <c r="I26" s="3">
+        <v>900</v>
+      </c>
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>900</v>
       </c>
       <c r="H27" s="3">
         <v>900</v>
       </c>
       <c r="I27" s="3">
+        <v>900</v>
+      </c>
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2800</v>
       </c>
       <c r="M32" s="3">
         <v>2800</v>
       </c>
       <c r="N32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3700</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>3600</v>
       </c>
       <c r="AB32" s="3">
         <v>3600</v>
       </c>
       <c r="AC32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AD32" s="3">
         <v>4200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>900</v>
       </c>
       <c r="H33" s="3">
         <v>900</v>
       </c>
       <c r="I33" s="3">
+        <v>900</v>
+      </c>
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>900</v>
       </c>
       <c r="H35" s="3">
         <v>900</v>
       </c>
       <c r="I35" s="3">
+        <v>900</v>
+      </c>
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,102 +3354,106 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>59200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>9000</v>
       </c>
       <c r="Q41" s="3">
         <v>9000</v>
       </c>
       <c r="R41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="S41" s="3">
         <v>9600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>8200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>12800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>11400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="E42" s="3">
         <v>1900</v>
@@ -3372,10 +3462,10 @@
         <v>1900</v>
       </c>
       <c r="G42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H42" s="3">
         <v>2900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3100</v>
       </c>
       <c r="I42" s="3">
         <v>3100</v>
@@ -3393,61 +3483,64 @@
         <v>3100</v>
       </c>
       <c r="N42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O42" s="3">
         <v>11300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>44700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>61800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>45100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>28400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>25900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>13400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>23400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>13100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>28100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>31400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,28 +3904,31 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2100</v>
       </c>
       <c r="F47" s="3">
         <v>2100</v>
       </c>
       <c r="G47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H47" s="3">
         <v>2200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2400</v>
       </c>
       <c r="J47" s="3">
         <v>2400</v>
@@ -3835,7 +3940,7 @@
         <v>2400</v>
       </c>
       <c r="M47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="N47" s="3">
         <v>2500</v>
@@ -3847,22 +3952,22 @@
         <v>2500</v>
       </c>
       <c r="Q47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="S47" s="3">
         <v>2400</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U47" s="3">
         <v>2400</v>
       </c>
       <c r="V47" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3891,40 +3996,43 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4200</v>
       </c>
       <c r="I48" s="3">
         <v>4200</v>
       </c>
       <c r="J48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4700</v>
       </c>
       <c r="N48" s="3">
         <v>4700</v>
@@ -3933,55 +4041,58 @@
         <v>4700</v>
       </c>
       <c r="P48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>7200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
-        <v>4300</v>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y48" s="3">
         <v>4300</v>
       </c>
       <c r="Z48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>4400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4300</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>4400</v>
       </c>
       <c r="AC48" s="3">
         <v>4400</v>
       </c>
       <c r="AD48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AE48" s="3">
         <v>4300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4025,28 +4136,28 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
+      <c r="V49" s="3">
+        <v>200</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X49" s="3">
-        <v>200</v>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y49" s="3">
         <v>200</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,80 +4364,83 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E52" s="3">
         <v>16500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>21200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>22800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>22600</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>819500</v>
+      </c>
+      <c r="E54" s="3">
         <v>787200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>753000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>763000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>774400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>764600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>745400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>775900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>753700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>752700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>751000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>793600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>793200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>705500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>703800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>702200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>721300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>723700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>694800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>663600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>662400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>640300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>650100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>631200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>653600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>632600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>615700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,25 +4892,28 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -4791,40 +4928,40 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
+      <c r="V59" s="3">
+        <v>700</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
-        <v>400</v>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
@@ -4836,7 +4973,7 @@
         <v>400</v>
       </c>
       <c r="AB59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC59" s="3">
         <v>300</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4957,7 +5100,7 @@
         <v>9700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4972,14 +5115,14 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>33900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>735600</v>
+      </c>
+      <c r="E66" s="3">
         <v>703600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>669500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>675700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>685200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>674700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>653600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>666900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>646600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>647100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>647300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>692300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>695800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>609600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>610400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>606600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>609600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>630200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>634700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>597500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>566200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>565300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>566800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>577800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>560300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>584000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>562500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5693,7 +5861,7 @@
         <v>13800</v>
       </c>
       <c r="F70" s="3">
-        <v>18800</v>
+        <v>13800</v>
       </c>
       <c r="G70" s="3">
         <v>18800</v>
@@ -5705,7 +5873,7 @@
         <v>18800</v>
       </c>
       <c r="J70" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="K70" s="3">
         <v>37300</v>
@@ -5723,7 +5891,7 @@
         <v>37300</v>
       </c>
       <c r="P70" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="Q70" s="3">
         <v>37500</v>
@@ -5732,22 +5900,22 @@
         <v>37500</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="T70" s="3">
-        <v>39400</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>39400</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
       <c r="X70" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="3">
         <v>51000</v>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>51000</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E72" s="3">
         <v>74900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>75800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>74600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>73400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>71500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>69600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>67400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>65800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>38000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>37700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>35800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>30900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>30100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E76" s="3">
         <v>69800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>71200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>60000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>58400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>56600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>53100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>51700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>89000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>97300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>46400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>46100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>19800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>19100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>900</v>
       </c>
       <c r="H81" s="3">
         <v>900</v>
       </c>
       <c r="I81" s="3">
+        <v>900</v>
+      </c>
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
